--- a/Resources/users.xlsx
+++ b/Resources/users.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\44787\Katalon Studio\projectFirst.git\Resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\44787\Katalon Studio\projectFirst.git (1)\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC461263-9B4C-40AE-9924-6A44BEDFD72D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F784F963-0442-456E-A9F4-D0A196269934}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4965" yWindow="3697" windowWidth="17280" windowHeight="9983" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1598" yWindow="720" windowWidth="17280" windowHeight="9982" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="15">
   <si>
     <t>username</t>
   </si>
@@ -56,6 +57,21 @@
   </si>
   <si>
     <t>doe</t>
+  </si>
+  <si>
+    <t>confirmPassword</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>Abc12345</t>
+  </si>
+  <si>
+    <t>user5</t>
+  </si>
+  <si>
+    <t>test.user5@email.com</t>
   </si>
 </sst>
 </file>
@@ -421,8 +437,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BF66B85-0AB5-406E-AD90-ECB90390C218}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -464,4 +480,66 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12CC987A-076B-481E-B44C-9698D6F19337}">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="4" max="4" width="9.73046875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2">
+        <v>123456789</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{833B9F49-6595-469B-BBC6-76E919859E7E}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>